--- a/给翟总/前海-未到期科目构成.xlsx
+++ b/给翟总/前海-未到期科目构成.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6550" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="直保PAA" sheetId="1" r:id="rId1"/>
     <sheet name="再保分入" sheetId="2" r:id="rId2"/>
     <sheet name="再保分出" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">再保分出!$B$3:$K$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>未到期科目构成</t>
   </si>
   <si>
-    <t>新准则-PAA：</t>
-  </si>
-  <si>
     <t>核算维度：公司段+部门段+营销团队段+渠道段+项目段+涉农段+产品段+合同分组</t>
   </si>
   <si>
@@ -65,12 +61,6 @@
     <t>金额</t>
   </si>
   <si>
-    <t>期初数</t>
-  </si>
-  <si>
-    <t>核对</t>
-  </si>
-  <si>
     <t>签单保费</t>
   </si>
   <si>
@@ -137,15 +127,6 @@
     <t>合计</t>
   </si>
   <si>
-    <t>借</t>
-  </si>
-  <si>
-    <t>亏损保险合同损益</t>
-  </si>
-  <si>
-    <t>未到期</t>
-  </si>
-  <si>
     <t>核算维度：公司段+部门段+营销团队段+渠道段+项目段+涉农段+产品段+合约ID+合同分组+比例/非比例+合约/临分</t>
   </si>
   <si>
@@ -164,9 +145,6 @@
     <t>未到期责任负债-未来现金流-现金流/分入保费-分保费用/比例合同</t>
   </si>
   <si>
-    <t>手续费_本币</t>
-  </si>
-  <si>
     <t>未到期责任负债-未来现金流-现金流/分入保费-分保费用/比例临分</t>
   </si>
   <si>
@@ -176,21 +154,27 @@
     <t>未到期责任负债-未来现金流-现金流/分入保费-分保费用/经纪费/比例合同</t>
   </si>
   <si>
-    <t>不含税经纪费_本币</t>
-  </si>
-  <si>
     <t>未到期责任负债-未来现金流-现金流/分入保费-分保费用/经纪费/比例临分</t>
   </si>
   <si>
     <t>未到期责任负债-未来现金流-保费分配法分摊的收入-保费收入/分入业务</t>
   </si>
   <si>
+    <t>2606011602</t>
+  </si>
+  <si>
+    <t>未到期责任负债-未来现金流-获取费用摊销计入支出-保费分配法/分入业务</t>
+  </si>
+  <si>
     <t>亏损</t>
   </si>
   <si>
     <t>未到期责任负债-未来现金流-保费分配法亏损合同损益-亏损提转差/分入业务</t>
   </si>
   <si>
+    <t>未到期责任负债-未来现金流-保险财务费用-当期计提利息/保费分配法/分入业务</t>
+  </si>
+  <si>
     <t>核算维度：公司段+部门段+营销团队段+渠道段+项目段+涉农段+产品段+合约ID+合同分组+比例/非比例+合约/临分+分出类型</t>
   </si>
   <si>
@@ -200,75 +184,36 @@
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-直接业务/比例合同</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-直接业务/超赔合同</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-直接业务/比例临分</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-直接业务/超赔临分</t>
-  </si>
-  <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-直接业务/比例预约</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-分入业务/比例合同</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-分入业务/超赔合同</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-分入业务/比例临分</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-分入业务/超赔临分</t>
-  </si>
-  <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-分入业务/比例预约</t>
-  </si>
-  <si>
     <t>摊回分保费用</t>
   </si>
   <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/直接业务/比例合同</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/直接业务/超赔合同</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/直接业务/比例临分</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/直接业务/超赔临分</t>
-  </si>
-  <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/直接业务/比例预约</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/分入业务/比例合同</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/分入业务/超赔合同</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/分入业务/比例临分</t>
   </si>
   <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/分入业务/超赔临分</t>
-  </si>
-  <si>
-    <t>分保摊回未到期责任资产-未来现金流-现金流/分出保费-摊回分保费用/分入业务/比例预约</t>
-  </si>
-  <si>
     <t>分出保费的分摊</t>
   </si>
   <si>
     <t>分保摊回未到期责任资产-未来现金流-保费分配法分摊的分出保费-分出保费/直接业务</t>
   </si>
   <si>
-    <t>当期确认的保费</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-保费分配法分摊的分出保费-分出保费/分入业务</t>
   </si>
   <si>
@@ -278,9 +223,6 @@
     <t>分保摊回未到期责任资产-未来现金流-保费分配法亏损摊回调整-亏损摊回调整/直接业务</t>
   </si>
   <si>
-    <t>亏损摊回部分</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-保费分配法亏损摊回调整-亏损摊回调整/分入业务</t>
   </si>
   <si>
@@ -293,9 +235,6 @@
     <t>负数，已摊销投资成分</t>
   </si>
   <si>
-    <t>当期确认的投资成分</t>
-  </si>
-  <si>
     <t>分保摊回未到期责任资产-未来现金流-摊回赔付/投资成分-摊回赔付支出/直接业务/比例临分</t>
   </si>
   <si>
@@ -312,6 +251,12 @@
   </si>
   <si>
     <t>分保摊回已发生赔款资产-未来现金流-摊回赔付/投资成分-应收分保账款/摊回分保赔款/直接业务/比例临分</t>
+  </si>
+  <si>
+    <t>分保摊回未到期责任资产-未来现金流-保险财务费用-计息及金融假设的变化/直接业务</t>
+  </si>
+  <si>
+    <t>分保摊回未到期责任资产-未来现金流-保险财务费用-计息及金融假设的变化/分入业务</t>
   </si>
 </sst>
 </file>
@@ -325,7 +270,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +299,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,7 +313,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -512,18 +463,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -756,7 +701,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,9 +714,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -890,137 +835,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1002,63 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,9 +1066,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,18 +1079,6 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,59 +1086,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1427,113 +1438,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="核对"/>
-      <sheetName val="资产负债表"/>
-      <sheetName val="取数模型"/>
-      <sheetName val="计量数据准备"/>
-      <sheetName val="BBA签单保费"/>
-      <sheetName val="计量-直保"/>
-      <sheetName val="计量-分入"/>
-      <sheetName val="计量-分出"/>
-      <sheetName val="费用分摊202401"/>
-      <sheetName val="费用分摊202412"/>
-      <sheetName val="科目余额"/>
-      <sheetName val="跟单获取费用202401"/>
-      <sheetName val="跟单获取费用202412"/>
-      <sheetName val="分入获取费用"/>
-      <sheetName val="源数据对比PPT"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="19">
-          <cell r="E19">
-            <v>349107038.205097</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="核对"/>
-      <sheetName val="资产负债表"/>
-      <sheetName val="取数模型"/>
-      <sheetName val="计量数据准备"/>
-      <sheetName val="BBA签单保费"/>
-      <sheetName val="计量-直保"/>
-      <sheetName val="计量-分入"/>
-      <sheetName val="计量-分出"/>
-      <sheetName val="费用分摊202401"/>
-      <sheetName val="费用分摊202412"/>
-      <sheetName val="科目余额"/>
-      <sheetName val="跟单获取费用202401"/>
-      <sheetName val="跟单获取费用202412"/>
-      <sheetName val="分入获取费用"/>
-      <sheetName val="源数据对比PPT"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="21">
-          <cell r="E21">
-            <v>7759231.54831958</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>310685886.910104</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1784,21 +1688,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K26"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.18181818181818" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.72727272727273" style="3"/>
-    <col min="3" max="3" width="18.0909090909091" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.3636363636364" style="3" customWidth="1"/>
-    <col min="6" max="6" width="71.7272727272727" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.1818181818182" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.1818181818182" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.90909090909091" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="63.6363636363636" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.9090909090909" style="5" customWidth="1"/>
     <col min="8" max="8" width="21.5454545454545" style="5" customWidth="1"/>
     <col min="9" max="9" width="22" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.6090909090909" style="1" customWidth="1"/>
@@ -1806,7 +1710,7 @@
     <col min="12" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="2:11">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1817,289 +1721,204 @@
       <c r="G1" s="8"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="2:8">
-      <c r="B2" s="36" t="s">
+    <row r="2" s="43" customFormat="1" ht="23" customHeight="1" spans="2:11">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="2:8">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" s="44" customFormat="1" ht="23" customHeight="1" spans="2:11">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" s="35" customFormat="1" ht="33" customHeight="1" spans="2:11">
-      <c r="B4" s="30" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="37" t="s">
+    </row>
+    <row r="4" s="43" customFormat="1" ht="25" customHeight="1" spans="2:11">
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="E4" s="34">
+        <v>2606010801</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:11">
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="G4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14">
-        <v>2606010801</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" s="43" customFormat="1" ht="25" customHeight="1" spans="2:11">
+      <c r="B5" s="55">
+        <v>2</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2606011002</v>
+      </c>
+      <c r="F5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17">
-        <v>955225869.550001</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="34">
-        <v>955225869.550001</v>
-      </c>
-      <c r="K5" s="6">
-        <f>H5-J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:11">
-      <c r="B6" s="38">
-        <v>2</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2606011002</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" s="43" customFormat="1" ht="25" customHeight="1" spans="2:11">
+      <c r="B6" s="59">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="D6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2606011102</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17">
-        <v>-411690257.116182</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="6">
-        <v>-411690257.116182</v>
-      </c>
-      <c r="K6" s="6">
-        <f>H6-J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:11">
-      <c r="B7" s="12">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" s="43" customFormat="1" ht="25" customHeight="1" spans="2:11">
+      <c r="B7" s="59">
+        <v>4</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="24">
-        <v>2606011102</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="D7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="17">
-        <v>-451788339.28379</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="6">
-        <v>-451788339.28379</v>
-      </c>
-      <c r="K7" s="6">
-        <f>H7-J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="2:11">
-      <c r="B8" s="12">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="G7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" s="43" customFormat="1" ht="25" customHeight="1" spans="2:11">
+      <c r="B8" s="34">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="34">
+        <v>2606011202</v>
+      </c>
+      <c r="F8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="17">
-        <v>200930371.768993</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6">
-        <v>200930371.768993</v>
-      </c>
-      <c r="K8" s="6">
-        <f>H8-J8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="2:11">
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" s="43" customFormat="1" ht="37" customHeight="1" spans="2:11">
+      <c r="B9" s="34">
+        <v>6</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="24">
-        <v>2606011202</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="D9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="62">
+        <v>2606011302</v>
+      </c>
+      <c r="F9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="17">
-        <v>56429400.4478362</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="2:11">
+      <c r="B10" s="4"/>
+      <c r="G10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="6">
-        <v>56429400.4478362</v>
-      </c>
-      <c r="K9" s="6">
-        <f>H9-J9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" hidden="1" customHeight="1" spans="2:11">
-      <c r="B10" s="14">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="24">
-        <v>2606011302</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <f>H10-J10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="2:11">
+      <c r="H10" s="5"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="4"/>
-      <c r="G11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="5">
-        <f>SUM(H5:H10)</f>
-        <v>349107045.366858</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34">
-        <v>349107045.366849</v>
-      </c>
-      <c r="K11" s="6">
-        <f>H11-J11</f>
-        <v>9.00030136108398e-6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="4"/>
-      <c r="H12" s="5">
-        <f>H11-[1]核对!$E$19</f>
-        <v>7.16176122426987</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2113,10 +1932,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5"/>
@@ -2135,7 +1954,7 @@
     <col min="13" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="2:12">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2146,9 +1965,9 @@
       <c r="G1" s="8"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="2:8">
+    <row r="2" s="1" customFormat="1" ht="20" spans="2:12">
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2159,290 +1978,232 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="2:12">
       <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B4" s="31">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="34">
+        <v>2606010901</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="2:13">
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="G4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2606010904</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B6" s="31">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2606010911</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="34">
+        <v>2606010913</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B8" s="41">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2606010901</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="D8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="34">
+        <v>2606010921</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="17">
-        <v>40395857.1814</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1">
-        <v>56799.88</v>
-      </c>
-      <c r="L4" s="1">
-        <f>J4+J5</f>
-        <v>40395857.1814</v>
-      </c>
-      <c r="M4" s="1">
-        <f>H4-L4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="2:10">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2606010904</v>
-      </c>
-      <c r="F5" s="32" t="s">
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B9" s="41"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="34">
+        <v>2606010923</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="5" t="s">
+      <c r="G9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1">
-        <v>40339057.3014</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="2:13">
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B10" s="41">
+        <v>4</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="34">
+        <v>2606011101</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2606010911</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="G10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B11" s="41">
+        <v>5</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="33">
-        <v>-13886782.44868</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="1">
-        <v>-350644.6124</v>
-      </c>
-      <c r="L6" s="1">
-        <f>J6+J7</f>
-        <v>-13886782.44868</v>
-      </c>
-      <c r="M6" s="1">
-        <f>H6-L6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="2:10">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2606010913</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="G11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
+      <c r="B12" s="41">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-13536137.83628</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="2:13">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="34">
+        <v>2606011201</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2606010921</v>
-      </c>
-      <c r="F8" s="32" t="s">
+      <c r="G12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="2:12">
+      <c r="B13" s="26">
+        <v>7</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2606011301</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="33">
-        <v>-1286088.80336</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-593.57</v>
-      </c>
-      <c r="L8" s="1">
-        <f>J8+J9</f>
-        <v>-1286088.80336</v>
-      </c>
-      <c r="M8" s="1">
-        <f>H8-L8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="2:10">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2606010923</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1285495.23336</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="26" customHeight="1" spans="2:12">
-      <c r="B10" s="12">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2606011101</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="16">
-        <v>-17766339.7212715</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-17766339.7212715</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-17766339.7212715</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="2:12">
-      <c r="B11" s="14">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2606011201</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="17">
-        <v>302585.340231081</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="34">
-        <v>302585.340231081</v>
-      </c>
-      <c r="L11" s="34">
-        <v>302585.340231081</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="8:10">
-      <c r="H12" s="5">
-        <f>SUM(H4:H11)</f>
-        <v>7759231.54831957</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <f>SUM(J4:J11)</f>
-        <v>7759231.54831958</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="5">
-        <f>[2]核对!$E$21-H12</f>
-        <v>1.11758708953857e-8</v>
-      </c>
+      <c r="G13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2462,19 +2223,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K33"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="8.72727272727273" style="3"/>
-    <col min="3" max="3" width="12.0727272727273" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.7727272727273" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.0272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="94.9363636363636" style="4" customWidth="1"/>
+    <col min="5" max="5" width="96.8727272727273" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.4" style="5" customWidth="1"/>
     <col min="7" max="7" width="22.0272727272727" style="5" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
@@ -2484,7 +2245,7 @@
     <col min="12" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:6">
+    <row r="1" customHeight="1" spans="2:9">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2256,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="2:9">
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2506,538 +2267,319 @@
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="2:9">
       <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:9">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1252010501</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15">
+        <v>1252010503</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
+        <v>1252010511</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:9">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
+        <v>1252010513</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:9">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1252010521</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:9">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15">
+        <v>1252010523</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:9">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <v>1252010531</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:9">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
+        <v>1252010533</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1252010301</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="13"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15">
+        <v>1252010302</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:9">
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1252010501</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17">
-        <v>855784035.400515</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6">
-        <v>863371602.268193</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" customHeight="1" spans="2:8">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="14">
-        <v>1252010502</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="14">
-        <v>1252010503</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="17">
-        <v>3137516.59</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" customHeight="1" spans="2:7">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="14">
-        <v>1252010504</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" hidden="1" customHeight="1" spans="2:7">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="14">
-        <v>1252010505</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="14">
-        <v>1252010511</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2611383.107677</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" customHeight="1" spans="2:7">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="14">
-        <v>1252010512</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="14">
-        <v>1252010513</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1838667.17</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" customHeight="1" spans="2:7">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="14">
-        <v>1252010514</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="D14" s="15">
+        <v>1252010401</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" hidden="1" customHeight="1" spans="2:7">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="14">
-        <v>1252010515</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="F14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15">
+        <v>1252010402</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:9">
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="F15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="14">
-        <v>1252010521</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D16" s="15">
+        <v>1252010201</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="17">
-        <v>-264691677.151172</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="6">
-        <v>-267611232.080104</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" customHeight="1" spans="2:8">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="14">
-        <v>1252010522</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="14">
-        <v>1252010523</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:11">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15">
+        <v>1252010202</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="17">
-        <v>-1093582.38</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" customHeight="1" spans="2:7">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14">
-        <v>1252010524</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:11">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" hidden="1" customHeight="1" spans="2:7">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="14">
-        <v>1252010525</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="14">
-        <v>1252010531</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="17">
-        <v>-822585.678932</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" customHeight="1" spans="2:7">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="14">
-        <v>1252010532</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:11">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="14">
-        <v>1252010533</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="E19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="17">
-        <v>-1003386.87</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" customHeight="1" spans="2:7">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="14">
-        <v>1252010534</v>
-      </c>
-      <c r="E22" s="21" t="s">
+      <c r="F19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:11">
+      <c r="B20" s="25">
+        <v>6</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1252010101</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" hidden="1" customHeight="1" spans="2:7">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="14">
-        <v>1252010535</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:11">
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26">
+        <v>1252010102</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:9">
-      <c r="B24" s="12">
-        <v>3</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="24">
-        <v>1252010301</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="17">
-        <v>-283110490.223765</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="6">
-        <v>-285074483.277986</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="24">
-        <v>1252010302</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="17">
-        <v>-1963993.05422132</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="12">
-        <v>4</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1252010401</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="17">
-        <v>3762.4081520832</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="6">
-        <v>3762.4081520832</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="24">
-        <v>1252010402</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="14">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1252010201</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="17">
-        <v>-272312430.795124</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I28" s="6">
-        <v>-272312430.795124</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" customHeight="1" spans="2:7">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="24">
-        <v>1252010202</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="17">
-        <v>272312430.795124</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="6">
-        <v>272312430.795124</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" customHeight="1" spans="2:7">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" customHeight="1" spans="7:11">
-      <c r="G32" s="5">
-        <f>SUM(G4:G31)</f>
-        <v>310689649.318254</v>
-      </c>
-      <c r="I32" s="6">
-        <f>SUM(I4:I30)</f>
-        <v>310689649.318255</v>
-      </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" customHeight="1" spans="9:11">
-      <c r="I33" s="29">
-        <f>I32-[2]核对!$E$22</f>
-        <v>3762.40815067291</v>
-      </c>
-      <c r="K33" s="5"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="K21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B3:K19" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="13">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
